--- a/biology/Zoologie/Argyrodella_pusilla/Argyrodella_pusilla.xlsx
+++ b/biology/Zoologie/Argyrodella_pusilla/Argyrodella_pusilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrodella pusilla, unique représentant du genre Argyrodella, est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrodella pusilla, unique représentant du genre Argyrodella, est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Seychelles[1]. Elle se rencontre sur Mahé et Silhouette[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Seychelles. Elle se rencontre sur Mahé et Silhouette.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 0,8 mm[3].
-Le mâle décrit par Roberts en 1978 mesure 1,68 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 0,8 mm.
+Le mâle décrit par Roberts en 1978 mesure 1,68 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Argyrodes pusillus par Saaristo en 1978. Elle est placée dans le genre Argyrodella par Saaristo en 2006[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Argyrodes pusillus par Saaristo en 1978. Elle est placée dans le genre Argyrodella par Saaristo en 2006.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Saaristo, 1978 : « Spiders (Arachnida, Araneae) from the Seychelle islands, with notes on taxonomy. » Annales Zoologici Fennici, vol. 15, p. 99-126.
 Saaristo, 2006 : « Theridiid or cobweb spiders of the granitic Seychelles islands (Araneae, Theridiidae). » Phelsuma, vol. 14, p. 49-89.</t>
